--- a/A Lesson 16/B2. Build ER diagram.xlsx
+++ b/A Lesson 16/B2. Build ER diagram.xlsx
@@ -542,7 +542,7 @@
   <dimension ref="B1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
